--- a/biology/Médecine/Agnes_Karll/Agnes_Karll.xlsx
+++ b/biology/Médecine/Agnes_Karll/Agnes_Karll.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agnes Karll (née le 25 mars 1868 à Embsen ; morte le 12 février 1927 à Berlin) est une réformatrice des soins infirmiers en Allemagne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fille de Theodor Karll et de son épouse Ida ; ses parents se séparent en 1881.
 Elle s'intéresse d'abord au métier d'enseignante et suit la formation dispensée par Johanna Willborn à Schwerin. C'est par l'amitié avec Johanna Wilborn qu'Agnès Karll entre en contact avec le féminisme, ainsi qu'avec l'exemple d'Helene Lange. Trop jeune pour passer l'examen des enseignants, elle commence comme professeur et tutrice privé dès 1886 à Retgendorf (aujourd'hui Dobin am See) et à Alt Gaarz.
@@ -550,12 +564,14 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Portent le nom d'Agnes Karll : 
-l'Institut de la recherche clinique infirmière de Berlin (Agnes Krall-Institut für Pflegeforschung, AKI[1]),
-des cliniques à Bad Schwartau et Laatzen[2],
-des écoles d'infirmière à Francfort-sur-le-Main[3] et Tettnang,
+l'Institut de la recherche clinique infirmière de Berlin (Agnes Krall-Institut für Pflegeforschung, AKI),
+des cliniques à Bad Schwartau et Laatzen,
+des écoles d'infirmière à Francfort-sur-le-Main et Tettnang,
 des rues à Gadebusch, Mayence, Embsen et Elmshorn
 enfin quelques maisons de soins.</t>
         </is>
